--- a/dados/outputAvançoPorEtapa.xlsx
+++ b/dados/outputAvançoPorEtapa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8463000000000001</v>
+        <v>0.8437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6716294458229942</v>
+        <v>0.6664691240962428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6103096410978184</v>
+        <v>0.6169304641650364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6266935716344768</v>
+        <v>0.6148746036321706</v>
       </c>
       <c r="F2" t="n">
-        <v>0.594296228150874</v>
+        <v>0.6052508204406939</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8338</v>
+        <v>0.8345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6572319501079397</v>
+        <v>0.6485320551228281</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6204379562043796</v>
+        <v>0.6282335550628234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.615</v>
+        <v>0.6047058823529411</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6150167384026781</v>
+        <v>0.6021400778210116</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8184</v>
+        <v>0.8214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5966520039100685</v>
+        <v>0.6017774531288045</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6121236944501331</v>
+        <v>0.6158203520129476</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5547005687520911</v>
+        <v>0.5673455978975033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.54583835946924</v>
+        <v>0.5709322524609148</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8083</v>
+        <v>0.8199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6074477298032909</v>
+        <v>0.5954384681058666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.610183299389002</v>
+        <v>0.6083572306431789</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5373831775700935</v>
+        <v>0.5464646464646465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5472049689440993</v>
+        <v>0.5483672211953173</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7082000000000001</v>
+        <v>0.7148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6428974865857102</v>
+        <v>0.6533296026860661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5383263782121679</v>
+        <v>0.5445396145610278</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5373317013463893</v>
+        <v>0.5603617774282342</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5299924069855733</v>
+        <v>0.528421052631579</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7356</v>
+        <v>0.7296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5511147362697117</v>
+        <v>0.5482456140350878</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5436605821410952</v>
+        <v>0.54475</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5367513611615244</v>
+        <v>0.5158329508949059</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5114116652578191</v>
+        <v>0.5097864768683273</v>
       </c>
     </row>
     <row r="8">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8178</v>
+        <v>0.8279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5474443629249205</v>
+        <v>0.5410073680396184</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4963144963144964</v>
+        <v>0.5068095557043983</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4851485148514851</v>
+        <v>0.492511013215859</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.4660107334525939</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7883</v>
+        <v>0.781</v>
       </c>
       <c r="C9" t="n">
-        <v>0.523658505645059</v>
+        <v>0.5106274007682458</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5155038759689923</v>
+        <v>0.5067703109327985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5098684210526316</v>
+        <v>0.508164275111331</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4912442396313364</v>
+        <v>0.5004868549172347</v>
       </c>
     </row>
     <row r="10">
@@ -648,85 +648,85 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6895</v>
+        <v>0.6871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5106598984771574</v>
+        <v>0.5141900742250036</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5217267821641579</v>
+        <v>0.5338239456552505</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4795862819814916</v>
+        <v>0.5015906680805939</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4755959137343928</v>
+        <v>0.4471458773784355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>México</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6415999999999999</v>
+        <v>0.6704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.496571072319202</v>
+        <v>0.4967183770883055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4978028876333961</v>
+        <v>0.5159159159159159</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5006305170239597</v>
+        <v>0.4487776484284051</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4659949622166247</v>
+        <v>0.4630350194552529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.672</v>
+        <v>0.7183</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4961309523809523</v>
+        <v>0.4816928859807879</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5188962207558488</v>
+        <v>0.4630057803468209</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4450867052023121</v>
+        <v>0.4762796504369538</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4623376623376623</v>
+        <v>0.4600262123197902</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7277</v>
+        <v>0.6441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4802803353030095</v>
+        <v>0.5058220773171868</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4626609442060086</v>
+        <v>0.4957028852056477</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5108225108225108</v>
+        <v>0.4575851393188854</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4092009685230024</v>
+        <v>0.4438430311231394</v>
       </c>
     </row>
     <row r="14">
@@ -736,63 +736,63 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5812</v>
+        <v>0.5819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4941500344115622</v>
+        <v>0.4925244887437705</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4735376044568245</v>
+        <v>0.4773203070481507</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4897058823529412</v>
+        <v>0.4678362573099415</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4414414414414414</v>
+        <v>0.4421875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5739</v>
+        <v>0.535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5013068478829065</v>
+        <v>0.5543925233644859</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4483837330552659</v>
+        <v>0.4743762643290627</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4697674418604651</v>
+        <v>0.4697938877043356</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4405940594059406</v>
+        <v>0.4084720121028744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5348000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5497382198952879</v>
+        <v>0.5072953736654804</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4612244897959184</v>
+        <v>0.4401964223079621</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4284660766961652</v>
+        <v>0.4621513944223108</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4440619621342513</v>
+        <v>0.4586206896551724</v>
       </c>
     </row>
     <row r="17">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6892</v>
+        <v>0.6796</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4495066744051074</v>
+        <v>0.4449676280164803</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4328599096191091</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4049217002237137</v>
+        <v>0.4370915032679739</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3922651933701657</v>
+        <v>0.4093457943925234</v>
       </c>
     </row>
     <row r="18">
@@ -824,63 +824,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4003</v>
+        <v>0.4033</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4838870846864852</v>
+        <v>0.4983882965534342</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4145585957666494</v>
+        <v>0.408955223880597</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3798256537982566</v>
+        <v>0.3746958637469587</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3672131147540983</v>
+        <v>0.4123376623376623</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Irã</t>
+          <t>Marrocos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3567</v>
+        <v>0.4047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4785534062237173</v>
+        <v>0.4200642451198419</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3848857644991213</v>
+        <v>0.4135294117647059</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4033485540334856</v>
+        <v>0.4082503556187767</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3924528301886792</v>
+        <v>0.3554006968641115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Marrocos</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.411</v>
+        <v>0.3837</v>
       </c>
       <c r="C20" t="n">
-        <v>0.405109489051095</v>
+        <v>0.3875423507948919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3945945945945946</v>
+        <v>0.4028244788164089</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4124809741248098</v>
+        <v>0.358931552587646</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3800738007380074</v>
+        <v>0.386046511627907</v>
       </c>
     </row>
     <row r="21">
@@ -890,41 +890,41 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3812</v>
+        <v>0.3935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4173662119622246</v>
+        <v>0.4256670902160102</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3626649905719673</v>
+        <v>0.3826865671641791</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3639514731369151</v>
+        <v>0.3619344773790951</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4</v>
+        <v>0.3405172413793104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Irã</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3842</v>
+        <v>0.3469</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3813118167621031</v>
+        <v>0.456615739406169</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4122866894197952</v>
+        <v>0.3667929292929293</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3824503311258278</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.3392857142857143</v>
       </c>
     </row>
     <row r="23">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3941</v>
+        <v>0.3931</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3872113676731794</v>
+        <v>0.3922665988298143</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4014267185473411</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3654434250764526</v>
+        <v>0.3780290791599354</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3263598326359832</v>
+        <v>0.3247863247863248</v>
       </c>
     </row>
     <row r="24">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.426</v>
+        <v>0.4406</v>
       </c>
       <c r="C24" t="n">
-        <v>0.352112676056338</v>
+        <v>0.3749432591920109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3493333333333334</v>
+        <v>0.3371670702179176</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3740458015267175</v>
+        <v>0.3877917414721724</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.2824074074074074</v>
       </c>
     </row>
     <row r="25">
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2807</v>
+        <v>0.2784</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3306020662629141</v>
+        <v>0.3067528735632184</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.3594847775175644</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3068181818181818</v>
+        <v>0.3355048859934853</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3689320388349515</v>
       </c>
     </row>
     <row r="26">
@@ -1000,63 +1000,63 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2386</v>
+        <v>0.2426</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3067896060352054</v>
+        <v>0.3128606760098928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3183060109289618</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2918454935622317</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Austrália</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.174</v>
+        <v>0.2146</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3137931034482759</v>
+        <v>0.3070829450139795</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3535660091047041</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2703862660944206</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Austrália</t>
+          <t>Equador</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2215</v>
+        <v>0.2808</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2997742663656885</v>
+        <v>0.2702991452991453</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3177710843373494</v>
+        <v>0.241106719367589</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3080568720379147</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="29">
@@ -1066,63 +1066,63 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1986</v>
+        <v>0.2008</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3282980866062437</v>
+        <v>0.3227091633466135</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2607361963190185</v>
+        <v>0.3070987654320988</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2588235294117647</v>
+        <v>0.2964824120603015</v>
       </c>
       <c r="F29" t="n">
-        <v>0.25</v>
+        <v>0.2711864406779661</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Catar</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2097</v>
+        <v>0.1789</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2408202193609919</v>
+        <v>0.2895472330911124</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2653465346534654</v>
+        <v>0.2895752895752896</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>0.34375</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Equador</t>
+          <t>Catar</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2833</v>
+        <v>0.2117</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2763854571126015</v>
+        <v>0.2399622106754842</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2567049808429119</v>
+        <v>0.2224409448818898</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2238805970149254</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="32">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1155</v>
+        <v>0.1151</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2025974025974026</v>
+        <v>0.2232841007819288</v>
       </c>
       <c r="D32" t="n">
-        <v>0.282051282051282</v>
+        <v>0.311284046692607</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.25</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33">
@@ -1154,18 +1154,20 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.058</v>
+        <v>0.0601</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1258620689655172</v>
+        <v>0.1713810316139767</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1780821917808219</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="E33" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
